--- a/開発計画/開発計画.xlsx
+++ b/開発計画/開発計画.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="1" r:id="rId1"/>
     <sheet name="開発成果物" sheetId="2" r:id="rId2"/>
-    <sheet name="開発プロセス" sheetId="3" r:id="rId3"/>
-    <sheet name="作業項目および見積もり" sheetId="4" r:id="rId4"/>
+    <sheet name="作業項目および見積もり" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>■マイルストーン</t>
     <phoneticPr fontId="1"/>
@@ -43,13 +42,498 @@
   </si>
   <si>
     <t>６月</t>
+  </si>
+  <si>
+    <t>■開発成果物</t>
+    <rPh sb="1" eb="3">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成果物</t>
+    <rPh sb="0" eb="3">
+      <t>セイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募書類一式</t>
+    <rPh sb="2" eb="4">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募</t>
+    <rPh sb="0" eb="2">
+      <t>オウボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・アプリケーションの概要
+・動作環境（ハードウェアが必要な場合は、審査員が動作を確認できるように、説明と入手先も記入してください）
+・開発環境
+・アプリケーションを動作させるまでの手順
+・動作状況（例えば，スクリーンショットの画像や、デモビデオを閲覧できる URL など）を記載してください。
+応募作品のソースコードと、応募作品を動作させるために必要なファイル一式
+応募作品の URL（応募の時点で、ご自身のブログや Web サイト等で公開されている場合に限る）
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPUエミュレータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計情報</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>athrillソース一式</t>
+    <rPh sb="10" eb="12">
+      <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセプタンステスト環境</t>
+    <rPh sb="10" eb="12">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストアプリ一式</t>
+    <rPh sb="6" eb="8">
+      <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COM一式</t>
+    <rPh sb="3" eb="5">
+      <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CANIF一式</t>
+    <rPh sb="5" eb="7">
+      <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAN一式（簡易版）</t>
+    <rPh sb="3" eb="5">
+      <t>イッシキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATK2OS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①CANコンフィグ
+②CANドライバ
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①CANIFコンフィグ
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①COMコンフィグ
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①ECU内　[ATS_RTE_00010] Explicit write and read / data – intra-ECU
+②ECU間　[ATS_RTE_00016] Explicit read / data – inter-ECU
+③テストフレームワーク作成
+④ARXMLファイル作成
+</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">構造設計のみ(ＵＭＬ）
+</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">既存のものを現コードに合わせてアップデート
+</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発環境一式</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発環境</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・v850 gccコンパイラ
+・Mingw（x86 gcc含む)
+</t>
+    <rPh sb="29" eb="30">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①Makefileの直し
+②Toppersライセンスコメント追加
+③CANデバイスの動作確認
+④機能FIXが必要
+⑤テスト
+⑥CANデバイス追加
+</t>
+    <rPh sb="48" eb="50">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト実行シェルスクリプト</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数(人日)</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田邉</t>
+    <rPh sb="0" eb="2">
+      <t>タナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■作業項目および見積もり</t>
+    <rPh sb="1" eb="3">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業項目</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同左</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①Toppersライセンスコメント追加
+②リファクタリング
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・v850 gccコンパイラ取得：１日
+・Mingw（x86 gcc含む)取得：１日
+</t>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Toppersライセンスコメント追加：１日
+・リファクタリング：１日
+・ビルド＆動作確認：１日
+</t>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・CAN仕様理解：１日
+・CAN設計理解：１日
+・CANドライバ実装：５日
+・コンフィグ：２日
+・ビルド＆動作確認：１日
+</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・コンフィグ：２日
+・ビルド＆動作確認：１日
+</t>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①ECU内　[ATS_RTE_00010] Explicit write and read / data – intra-ECU：１日
+②ECU間　[ATS_RTE_00016] Explicit read / data – inter-ECU：１日
+③テストフレームワーク作成：１日
+④ARXMLファイル作成：１日
+</t>
+    <rPh sb="66" eb="67">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①Makefileの直し
+②Toppersライセンスコメント追加
+■③CANデバイスの動作確認
+④機能FIXが必要
+⑤テスト
+■⑥CANデバイス追加</t>
+    <rPh sb="10" eb="11">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +582,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +609,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -130,6 +628,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="hair">
         <color indexed="64"/>
       </right>
@@ -193,6 +706,184 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -206,16 +897,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -228,23 +916,149 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1124,17 +1938,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="50" style="14" customWidth="1"/>
+    <col min="6" max="6" width="97.625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="108" x14ac:dyDescent="0.15">
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C7" s="17">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="C8" s="17">
+        <v>4</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C9" s="17">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="C10" s="17">
+        <v>6</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C11" s="17">
+        <v>7</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C12" s="17">
+        <v>8</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C13" s="17">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C14" s="17">
+        <v>10</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C15" s="17">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C16" s="17">
+        <v>12</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C17" s="17">
+        <v>13</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C18" s="17">
+        <v>14</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C19" s="17">
+        <v>15</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C20" s="17">
+        <v>16</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="17">
+        <v>17</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C22" s="17">
+        <v>18</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C23" s="17">
+        <v>19</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C24" s="17">
+        <v>20</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C25" s="17">
+        <v>21</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C26" s="17">
+        <v>22</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C27" s="17">
+        <v>23</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1143,36 +2233,553 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="50" style="14" customWidth="1"/>
+    <col min="6" max="6" width="80.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28" t="str">
+        <f>開発成果物!D5</f>
+        <v>応募</v>
+      </c>
+      <c r="E5" s="28" t="str">
+        <f>開発成果物!E5</f>
+        <v>応募書類一式</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="29">
+        <v>2</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C6" s="31">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f>開発成果物!D6</f>
+        <v>CPUエミュレータ</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f>開発成果物!E6</f>
+        <v>マニュアル</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C7" s="31">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f>開発成果物!D7</f>
+        <v>CPUエミュレータ</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f>開発成果物!E7</f>
+        <v>設計情報</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="33">
+        <v>4</v>
+      </c>
+      <c r="D8" s="34" t="str">
+        <f>開発成果物!D8</f>
+        <v>CPUエミュレータ</v>
+      </c>
+      <c r="E8" s="34" t="str">
+        <f>開発成果物!E8</f>
+        <v>athrillソース一式</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="36">
+        <v>5</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C9" s="45">
+        <v>5</v>
+      </c>
+      <c r="D9" s="46" t="str">
+        <f>開発成果物!D9</f>
+        <v>アクセプタンステスト環境</v>
+      </c>
+      <c r="E9" s="46" t="str">
+        <f>開発成果物!E9</f>
+        <v>テスト実行シェルスクリプト</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="47">
+        <v>1</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="C10" s="43">
+        <v>6</v>
+      </c>
+      <c r="D10" s="23" t="str">
+        <f>開発成果物!D10</f>
+        <v>アクセプタンステスト環境</v>
+      </c>
+      <c r="E10" s="23" t="str">
+        <f>開発成果物!E10</f>
+        <v>テストアプリ一式</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="22">
+        <v>4</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C11" s="43">
+        <v>7</v>
+      </c>
+      <c r="D11" s="23" t="str">
+        <f>開発成果物!D11</f>
+        <v>アクセプタンステスト環境</v>
+      </c>
+      <c r="E11" s="23" t="str">
+        <f>開発成果物!E11</f>
+        <v>COM一式</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="22">
+        <v>3</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C12" s="43">
+        <v>8</v>
+      </c>
+      <c r="D12" s="23" t="str">
+        <f>開発成果物!D12</f>
+        <v>アクセプタンステスト環境</v>
+      </c>
+      <c r="E12" s="23" t="str">
+        <f>開発成果物!E12</f>
+        <v>CANIF一式</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="22">
+        <v>3</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="C13" s="31">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f>開発成果物!D13</f>
+        <v>アクセプタンステスト環境</v>
+      </c>
+      <c r="E13" s="18" t="str">
+        <f>開発成果物!E13</f>
+        <v>CAN一式（簡易版）</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="17">
+        <v>10</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="C14" s="43">
+        <v>10</v>
+      </c>
+      <c r="D14" s="23" t="str">
+        <f>開発成果物!D14</f>
+        <v>アクセプタンステスト環境</v>
+      </c>
+      <c r="E14" s="23" t="str">
+        <f>開発成果物!E14</f>
+        <v>ATK2OS</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="22">
+        <v>3</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="49">
+        <v>11</v>
+      </c>
+      <c r="D15" s="50" t="str">
+        <f>開発成果物!D15</f>
+        <v>開発環境</v>
+      </c>
+      <c r="E15" s="50" t="str">
+        <f>開発成果物!E15</f>
+        <v>開発環境一式</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="52">
+        <v>3</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="25">
+        <v>12</v>
+      </c>
+      <c r="D16" s="26">
+        <f>開発成果物!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <f>開発成果物!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="17">
+        <v>13</v>
+      </c>
+      <c r="D17" s="18">
+        <f>開発成果物!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <f>開発成果物!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="17">
+        <v>14</v>
+      </c>
+      <c r="D18" s="18">
+        <f>開発成果物!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <f>開発成果物!E18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="17">
+        <v>15</v>
+      </c>
+      <c r="D19" s="18">
+        <f>開発成果物!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <f>開発成果物!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="17">
+        <v>16</v>
+      </c>
+      <c r="D20" s="18">
+        <f>開発成果物!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <f>開発成果物!E20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="17">
+        <v>17</v>
+      </c>
+      <c r="D21" s="18">
+        <f>開発成果物!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <f>開発成果物!E21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="17">
+        <v>18</v>
+      </c>
+      <c r="D22" s="18">
+        <f>開発成果物!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <f>開発成果物!E22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="17">
+        <v>19</v>
+      </c>
+      <c r="D23" s="18">
+        <f>開発成果物!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <f>開発成果物!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="17">
+        <v>20</v>
+      </c>
+      <c r="D24" s="18">
+        <f>開発成果物!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <f>開発成果物!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="17">
+        <v>21</v>
+      </c>
+      <c r="D25" s="18">
+        <f>開発成果物!D25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <f>開発成果物!E25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="17">
+        <v>22</v>
+      </c>
+      <c r="D26" s="18">
+        <f>開発成果物!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="18">
+        <f>開発成果物!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="17">
+        <v>23</v>
+      </c>
+      <c r="D27" s="18">
+        <f>開発成果物!D27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <f>開発成果物!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="17">
+        <f>SUM(H9:H15)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="17">
+        <f>SUM(H5:H8)</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/開発計画/開発計画.xlsx
+++ b/開発計画/開発計画.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>■マイルストーン</t>
     <phoneticPr fontId="1"/>
@@ -525,6 +525,47 @@
     </rPh>
     <rPh sb="72" eb="74">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低
+（最悪手順化)</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイアク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -897,7 +938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +960,132 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,131 +1101,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1722,47 +1766,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:26" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="7" t="s">
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11" t="s">
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="7" t="s">
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="10"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="52"/>
     </row>
     <row r="5" spans="2:26" ht="111.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2"/>
@@ -1922,12 +1966,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="W4:Z4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1946,283 +1990,283 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="4.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="50" style="14" customWidth="1"/>
-    <col min="6" max="6" width="97.625" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="3.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="50" style="9" customWidth="1"/>
+    <col min="6" max="6" width="97.625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="108" x14ac:dyDescent="0.15">
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C6" s="17">
+      <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C7" s="17">
+      <c r="C7" s="12">
         <v>3</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="C8" s="17">
+      <c r="C8" s="12">
         <v>4</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C9" s="17">
+      <c r="C9" s="12">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="C10" s="17">
+      <c r="C10" s="12">
         <v>6</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C11" s="17">
+      <c r="C11" s="12">
         <v>7</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C12" s="17">
+      <c r="C12" s="12">
         <v>8</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C13" s="17">
+      <c r="C13" s="12">
         <v>9</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C14" s="17">
+      <c r="C14" s="12">
         <v>10</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C15" s="17">
+      <c r="C15" s="12">
         <v>11</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C16" s="17">
+      <c r="C16" s="12">
         <v>12</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C17" s="17">
+      <c r="C17" s="12">
         <v>13</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C18" s="17">
+      <c r="C18" s="12">
         <v>14</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C19" s="17">
+      <c r="C19" s="12">
         <v>15</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="17">
+      <c r="C20" s="12">
         <v>16</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="17">
+      <c r="C21" s="12">
         <v>17</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="17">
+      <c r="C22" s="12">
         <v>18</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="17">
+      <c r="C23" s="12">
         <v>19</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C24" s="17">
+      <c r="C24" s="12">
         <v>20</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C25" s="17">
+      <c r="C25" s="12">
         <v>21</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C26" s="17">
+      <c r="C26" s="12">
         <v>22</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C27" s="17">
+      <c r="C27" s="12">
         <v>23</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2233,7 +2277,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -2241,546 +2285,597 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="4.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="50" style="14" customWidth="1"/>
-    <col min="6" max="6" width="80.5" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="3.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="50" style="9" customWidth="1"/>
+    <col min="6" max="6" width="80.5" style="9" customWidth="1"/>
+    <col min="7" max="8" width="12.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="38" t="s">
+    <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="J4" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C5" s="27">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C5" s="22">
         <v>1</v>
       </c>
-      <c r="D5" s="28" t="str">
+      <c r="D5" s="23" t="str">
         <f>開発成果物!D5</f>
         <v>応募</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="23" t="str">
         <f>開発成果物!E5</f>
         <v>応募書類一式</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="24">
         <v>2</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="J5" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C6" s="31">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="str">
+      <c r="D6" s="13" t="str">
         <f>開発成果物!D6</f>
         <v>CPUエミュレータ</v>
       </c>
-      <c r="E6" s="18" t="str">
+      <c r="E6" s="13" t="str">
         <f>開発成果物!E6</f>
         <v>マニュアル</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="12">
         <v>1</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="J6" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C7" s="31">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C7" s="26">
         <v>3</v>
       </c>
-      <c r="D7" s="18" t="str">
+      <c r="D7" s="13" t="str">
         <f>開発成果物!D7</f>
         <v>CPUエミュレータ</v>
       </c>
-      <c r="E7" s="18" t="str">
+      <c r="E7" s="13" t="str">
         <f>開発成果物!E7</f>
         <v>設計情報</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="12">
         <v>1</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="33">
+    <row r="8" spans="2:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="28">
         <v>4</v>
       </c>
-      <c r="D8" s="34" t="str">
+      <c r="D8" s="29" t="str">
         <f>開発成果物!D8</f>
         <v>CPUエミュレータ</v>
       </c>
-      <c r="E8" s="34" t="str">
+      <c r="E8" s="29" t="str">
         <f>開発成果物!E8</f>
         <v>athrillソース一式</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="31">
         <v>5</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="J8" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C9" s="45">
+    <row r="9" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="C9" s="40">
         <v>5</v>
       </c>
-      <c r="D9" s="46" t="str">
+      <c r="D9" s="41" t="str">
         <f>開発成果物!D9</f>
         <v>アクセプタンステスト環境</v>
       </c>
-      <c r="E9" s="46" t="str">
+      <c r="E9" s="41" t="str">
         <f>開発成果物!E9</f>
         <v>テスト実行シェルスクリプト</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="42">
         <v>1</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="J9" s="43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="C10" s="43">
+    <row r="10" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="C10" s="38">
         <v>6</v>
       </c>
-      <c r="D10" s="23" t="str">
+      <c r="D10" s="18" t="str">
         <f>開発成果物!D10</f>
         <v>アクセプタンステスト環境</v>
       </c>
-      <c r="E10" s="23" t="str">
+      <c r="E10" s="18" t="str">
         <f>開発成果物!E10</f>
         <v>テストアプリ一式</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="17">
         <v>4</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="J10" s="39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C11" s="43">
+    <row r="11" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C11" s="38">
         <v>7</v>
       </c>
-      <c r="D11" s="23" t="str">
+      <c r="D11" s="18" t="str">
         <f>開発成果物!D11</f>
         <v>アクセプタンステスト環境</v>
       </c>
-      <c r="E11" s="23" t="str">
+      <c r="E11" s="18" t="str">
         <f>開発成果物!E11</f>
         <v>COM一式</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="17">
         <v>3</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="J11" s="39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C12" s="43">
+    <row r="12" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C12" s="38">
         <v>8</v>
       </c>
-      <c r="D12" s="23" t="str">
+      <c r="D12" s="18" t="str">
         <f>開発成果物!D12</f>
         <v>アクセプタンステスト環境</v>
       </c>
-      <c r="E12" s="23" t="str">
+      <c r="E12" s="18" t="str">
         <f>開発成果物!E12</f>
         <v>CANIF一式</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="17">
         <v>3</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="J12" s="39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="C13" s="31">
+    <row r="13" spans="2:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="C13" s="26">
         <v>9</v>
       </c>
-      <c r="D13" s="18" t="str">
+      <c r="D13" s="13" t="str">
         <f>開発成果物!D13</f>
         <v>アクセプタンステスト環境</v>
       </c>
-      <c r="E13" s="18" t="str">
+      <c r="E13" s="13" t="str">
         <f>開発成果物!E13</f>
         <v>CAN一式（簡易版）</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="12">
         <v>10</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="J13" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="C14" s="43">
+    <row r="14" spans="2:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="C14" s="38">
         <v>10</v>
       </c>
-      <c r="D14" s="23" t="str">
+      <c r="D14" s="18" t="str">
         <f>開発成果物!D14</f>
         <v>アクセプタンステスト環境</v>
       </c>
-      <c r="E14" s="23" t="str">
+      <c r="E14" s="18" t="str">
         <f>開発成果物!E14</f>
         <v>ATK2OS</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="17">
         <v>3</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="J14" s="39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="49">
+    <row r="15" spans="2:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="44">
         <v>11</v>
       </c>
-      <c r="D15" s="50" t="str">
+      <c r="D15" s="45" t="str">
         <f>開発成果物!D15</f>
         <v>開発環境</v>
       </c>
-      <c r="E15" s="50" t="str">
+      <c r="E15" s="45" t="str">
         <f>開発成果物!E15</f>
         <v>開発環境一式</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="47">
         <v>3</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="J15" s="48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="25">
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="20">
         <v>12</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="21">
         <f>開発成果物!D16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="21">
         <f>開発成果物!E16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="17">
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="3:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="12">
         <v>13</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="13">
         <f>開発成果物!D17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="13">
         <f>開発成果物!E17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="17">
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="3:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="12">
         <v>14</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="13">
         <f>開発成果物!D18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="13">
         <f>開発成果物!E18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="17">
+      <c r="F18" s="13"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="3:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="12">
         <v>15</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="13">
         <f>開発成果物!D19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="13">
         <f>開発成果物!E19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="17">
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="3:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="12">
         <v>16</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="13">
         <f>開発成果物!D20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="13">
         <f>開発成果物!E20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="17">
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="3:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="12">
         <v>17</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="13">
         <f>開発成果物!D21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="13">
         <f>開発成果物!E21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="17">
+      <c r="F21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="3:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="12">
         <v>18</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="13">
         <f>開発成果物!D22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="13">
         <f>開発成果物!E22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="17">
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="3:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="12">
         <v>19</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="13">
         <f>開発成果物!D23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="13">
         <f>開発成果物!E23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="17">
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="3:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="12">
         <v>20</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="13">
         <f>開発成果物!D24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="13">
         <f>開発成果物!E24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="17">
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="3:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="12">
         <v>21</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="13">
         <f>開発成果物!D25</f>
         <v>0</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="13">
         <f>開発成果物!E25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="17">
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="3:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="12">
         <v>22</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="13">
         <f>開発成果物!D26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="13">
         <f>開発成果物!E26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="3:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="17">
+      <c r="F26" s="13"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="3:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="12">
         <v>23</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="13">
         <f>開発成果物!D27</f>
         <v>0</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="13">
         <f>開発成果物!E27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="G28" s="17" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="G28" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="17">
-        <f>SUM(H9:H15)</f>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12">
+        <f>SUM(I9:I15)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="G29" s="17" t="s">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="G29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="17">
-        <f>SUM(H5:H8)</f>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12">
+        <f>SUM(I5:I8)</f>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/開発計画/開発計画.xlsx
+++ b/開発計画/開発計画.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="1" r:id="rId1"/>
@@ -190,26 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">①ECU内　[ATS_RTE_00010] Explicit write and read / data – intra-ECU
-②ECU間　[ATS_RTE_00016] Explicit read / data – inter-ECU
-③テストフレームワーク作成
-④ARXMLファイル作成
-</t>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">構造設計のみ(ＵＭＬ）
 </t>
     <rPh sb="0" eb="2">
@@ -479,26 +459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">①ECU内　[ATS_RTE_00010] Explicit write and read / data – intra-ECU：１日
-②ECU間　[ATS_RTE_00016] Explicit read / data – inter-ECU：１日
-③テストフレームワーク作成：１日
-④ARXMLファイル作成：１日
-</t>
-    <rPh sb="66" eb="67">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①Makefileの直し
 ②Toppersライセンスコメント追加
 ■③CANデバイスの動作確認
@@ -566,6 +526,57 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①ECU内　[ATS_RTE_00010] Explicit write and read / data – intra-ECU：１日
+②ECU間　[ATS_RTE_00016] Explicit read / data – inter-ECU：１日
+③テストフレームワーク作成：１日
+④ARXMLファイル作成：１日
+⑤RTEコード生成：１日
+</t>
+    <rPh sb="66" eb="67">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①ECU内　[ATS_RTE_00010] Explicit write and read / data – intra-ECU
+②ECU間　[ATS_RTE_00016] Explicit read / data – inter-ECU
+③テストフレームワーク作成
+④ARXMLファイル作成
+⑤RTEコード生成
+</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1086,23 +1097,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1771,41 +1782,41 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="49" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="52"/>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="49" t="s">
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="52"/>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="49" t="s">
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="52"/>
     </row>
     <row r="5" spans="2:26" ht="111.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1984,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2043,7 +2054,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="27" x14ac:dyDescent="0.15">
@@ -2057,7 +2068,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
@@ -2071,7 +2082,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="27" x14ac:dyDescent="0.15">
@@ -2082,13 +2093,13 @@
         <v>19</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:6" ht="81" x14ac:dyDescent="0.15">
       <c r="C10" s="12">
         <v>6</v>
       </c>
@@ -2099,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="27" x14ac:dyDescent="0.15">
@@ -2155,7 +2166,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -2163,13 +2174,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -2279,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2299,7 +2310,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -2314,19 +2325,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>38</v>
-      </c>
       <c r="J4" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -2342,19 +2353,19 @@
         <v>応募書類一式</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I5" s="24">
         <v>2</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -2370,19 +2381,19 @@
         <v>マニュアル</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" s="12">
         <v>1</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -2398,19 +2409,19 @@
         <v>設計情報</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I7" s="12">
         <v>1</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -2426,19 +2437,19 @@
         <v>athrillソース一式</v>
       </c>
       <c r="F8" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="37" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>54</v>
       </c>
       <c r="I8" s="31">
         <v>5</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="27" x14ac:dyDescent="0.15">
@@ -2454,22 +2465,22 @@
         <v>テスト実行シェルスクリプト</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>54</v>
       </c>
       <c r="I9" s="42">
         <v>1</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="67.5" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="81" x14ac:dyDescent="0.15">
       <c r="C10" s="38">
         <v>6</v>
       </c>
@@ -2482,19 +2493,19 @@
         <v>テストアプリ一式</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
@@ -2510,19 +2521,19 @@
         <v>COM一式</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="17">
         <v>3</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
@@ -2538,19 +2549,19 @@
         <v>CANIF一式</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="17">
         <v>3</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="81" x14ac:dyDescent="0.15">
@@ -2566,19 +2577,19 @@
         <v>CAN一式（簡易版）</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="12">
         <v>10</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="54" x14ac:dyDescent="0.15">
@@ -2594,19 +2605,19 @@
         <v>ATK2OS</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I14" s="17">
         <v>3</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2622,19 +2633,19 @@
         <v>開発環境一式</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I15" s="47">
         <v>3</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
@@ -2855,17 +2866,17 @@
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.15">
       <c r="G28" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12">
         <f>SUM(I9:I15)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.15">
       <c r="G29" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12">
